--- a/grupos/6ARHM - Estadisticos 2020.xlsx
+++ b/grupos/6ARHM - Estadisticos 2020.xlsx
@@ -3198,6 +3198,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3854,7 +3855,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4465,6 +4467,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/6ARHM - Estadisticos 2020.xlsx
+++ b/grupos/6ARHM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="153">
   <si>
     <t>Materia</t>
   </si>
@@ -185,12 +185,12 @@
     <t>Velasco Sanchez David</t>
   </si>
   <si>
+    <t>Duran Amezcua Maria Angelica</t>
+  </si>
+  <si>
     <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
-    <t>Duran Amezcua Maria Angelica</t>
-  </si>
-  <si>
     <t>Ochoa Martínez Mayeli</t>
   </si>
   <si>
@@ -212,247 +212,247 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ALDAZABA</t>
+  </si>
+  <si>
+    <t>ARANA</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>AVENDAÑO</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
     <t>CABRERA</t>
   </si>
   <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
     <t>LADINO</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
     <t>LOBATO</t>
   </si>
   <si>
+    <t>LUNA</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
     <t>MOLINA</t>
   </si>
   <si>
     <t>NEPOMUCENO</t>
   </si>
   <si>
+    <t>NIETO</t>
+  </si>
+  <si>
+    <t>OROZCO</t>
+  </si>
+  <si>
+    <t>QUERO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>XICALHUA</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
     <t>VALLEJO</t>
   </si>
   <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
     <t>PALACIOS</t>
   </si>
   <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>SESMA</t>
+  </si>
+  <si>
+    <t>CARVAJAL</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
     <t>URBINA</t>
   </si>
   <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
     <t>JOSE</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
+    <t>ANGEL</t>
   </si>
   <si>
     <t>PANZO</t>
   </si>
   <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
     <t>ENCARNACION</t>
   </si>
   <si>
     <t>ALAMILLO</t>
   </si>
   <si>
+    <t>MONSTRANZO</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>INGRID YOSELIN</t>
+  </si>
+  <si>
+    <t>ABIRAM</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>LAUDY VANESSA</t>
+  </si>
+  <si>
     <t>LINDA MICHELLE</t>
   </si>
   <si>
+    <t>LIZETH</t>
+  </si>
+  <si>
     <t>DIANA LAURA</t>
   </si>
   <si>
+    <t>VIVIANA</t>
+  </si>
+  <si>
+    <t>FLOR LIZZETH</t>
+  </si>
+  <si>
+    <t>LISBET</t>
+  </si>
+  <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
+    <t>YAZMIN</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>SEHANI</t>
+  </si>
+  <si>
     <t>MARIBEL</t>
   </si>
   <si>
+    <t>ANGEL DE JESUS</t>
+  </si>
+  <si>
     <t>MIGUEL</t>
   </si>
   <si>
+    <t>ARELI</t>
+  </si>
+  <si>
     <t>ITZEL</t>
   </si>
   <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
     <t>JAIRO NEMESIO</t>
   </si>
   <si>
+    <t>REBECA MELISA</t>
+  </si>
+  <si>
     <t>JUAN DANIEL</t>
   </si>
   <si>
     <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>ALDAZABA</t>
-  </si>
-  <si>
-    <t>ARANA</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>AVENDAÑO</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>NIETO</t>
-  </si>
-  <si>
-    <t>OROZCO</t>
-  </si>
-  <si>
-    <t>QUERO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>XICALHUA</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>SESMA</t>
-  </si>
-  <si>
-    <t>CARVAJAL</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>MONSTRANZO</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>ZACARIAS</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>INGRID YOSELIN</t>
-  </si>
-  <si>
-    <t>ABIRAM</t>
-  </si>
-  <si>
-    <t>XIMENA</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>LAUDY VANESSA</t>
-  </si>
-  <si>
-    <t>LIZETH</t>
-  </si>
-  <si>
-    <t>VIVIANA</t>
-  </si>
-  <si>
-    <t>FLOR LIZZETH</t>
-  </si>
-  <si>
-    <t>LISBET</t>
-  </si>
-  <si>
-    <t>DULCE MARIA</t>
-  </si>
-  <si>
-    <t>YAZMIN</t>
-  </si>
-  <si>
-    <t>MARIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>SEHANI</t>
-  </si>
-  <si>
-    <t>ANGEL DE JESUS</t>
-  </si>
-  <si>
-    <t>ARELI</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>REBECA MELISA</t>
   </si>
   <si>
     <t>LOURDES</t>
@@ -963,13 +963,13 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>-1</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>-1</v>
@@ -1022,13 +1022,13 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <v>-1</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M5">
         <v>-1</v>
@@ -1081,13 +1081,13 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>-1</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M6">
         <v>-1</v>
@@ -1140,13 +1140,13 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>-1</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M7">
         <v>-1</v>
@@ -1199,13 +1199,13 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
         <v>-1</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M8">
         <v>-1</v>
@@ -1246,7 +1246,7 @@
         <v>-1</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1317,13 +1317,13 @@
         <v>-1</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <v>-1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M10">
         <v>-1</v>
@@ -1376,13 +1376,13 @@
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <v>-1</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M11">
         <v>-1</v>
@@ -1417,13 +1417,13 @@
         <v>-1</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>-1</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -1435,7 +1435,7 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K12">
         <v>-1</v>
@@ -1494,13 +1494,13 @@
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K13">
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M13">
         <v>-1</v>
@@ -1553,13 +1553,13 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K14">
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M14">
         <v>-1</v>
@@ -1612,13 +1612,13 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K15">
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M15">
         <v>-1</v>
@@ -1671,13 +1671,13 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M16">
         <v>-1</v>
@@ -1730,13 +1730,13 @@
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M17">
         <v>-1</v>
@@ -1789,13 +1789,13 @@
         <v>-1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K18">
         <v>-1</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M18">
         <v>-1</v>
@@ -1848,13 +1848,13 @@
         <v>-1</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K19">
         <v>-1</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M19">
         <v>-1</v>
@@ -1913,7 +1913,7 @@
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>-1</v>
@@ -1948,13 +1948,13 @@
         <v>-1</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>-1</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -1966,13 +1966,13 @@
         <v>-1</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K21">
         <v>-1</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M21">
         <v>-1</v>
@@ -2025,13 +2025,13 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K22">
         <v>-1</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M22">
         <v>-1</v>
@@ -2084,13 +2084,13 @@
         <v>-1</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K23">
         <v>-1</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M23">
         <v>-1</v>
@@ -2143,13 +2143,13 @@
         <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K24">
         <v>-1</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M24">
         <v>-1</v>
@@ -2208,7 +2208,7 @@
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M25">
         <v>-1</v>
@@ -2249,7 +2249,7 @@
         <v>-1</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -2267,7 +2267,7 @@
         <v>-1</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>-1</v>
@@ -2320,13 +2320,13 @@
         <v>-1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K27">
         <v>-1</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M27">
         <v>-1</v>
@@ -2361,13 +2361,13 @@
         <v>-1</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>-1</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -2379,7 +2379,7 @@
         <v>-1</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K28">
         <v>-1</v>
@@ -2420,13 +2420,13 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>-1</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -2444,7 +2444,7 @@
         <v>-1</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M29">
         <v>-1</v>
@@ -2497,13 +2497,13 @@
         <v>-1</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K30">
         <v>-1</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M30">
         <v>-1</v>
@@ -2556,13 +2556,13 @@
         <v>-1</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K31">
         <v>-1</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <v>-1</v>
@@ -2615,13 +2615,13 @@
         <v>-1</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K32">
         <v>-1</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M32">
         <v>-1</v>
@@ -2674,13 +2674,13 @@
         <v>-1</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K33">
         <v>-1</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M33">
         <v>-1</v>
@@ -2733,13 +2733,13 @@
         <v>-1</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K34">
         <v>-1</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M34">
         <v>-1</v>
@@ -2792,13 +2792,13 @@
         <v>-1</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K35">
         <v>-1</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M35">
         <v>-1</v>
@@ -2851,13 +2851,13 @@
         <v>-1</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K36">
         <v>-1</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M36">
         <v>-1</v>
@@ -2910,13 +2910,13 @@
         <v>-1</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K37">
         <v>-1</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M37">
         <v>-1</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -3036,30 +3036,30 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="G3">
+        <v>17.65</v>
+      </c>
+      <c r="H3">
+        <v>7.7</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>79.41</v>
-      </c>
-      <c r="G3">
+      <c r="J3">
         <v>0</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>20.59</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -3071,22 +3071,22 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>82.34999999999999</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>17.65</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3192,7 +3192,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3224,436 +3224,436 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920197</v>
+        <v>18330051920192</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920197</v>
+        <v>18330051920192</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920197</v>
+        <v>18330051920192</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920197</v>
+        <v>18330051920192</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920197</v>
+        <v>18330051920193</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920204</v>
+        <v>18330051920193</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920204</v>
+        <v>18330051920193</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920204</v>
+        <v>18330051920193</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920204</v>
+        <v>18330051920194</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920204</v>
+        <v>18330051920194</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920213</v>
+        <v>18330051920194</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920214</v>
+        <v>18330051920194</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920214</v>
+        <v>18330051920087</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920214</v>
+        <v>18330051920087</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920214</v>
+        <v>18330051920087</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920214</v>
+        <v>18330051920087</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920218</v>
+        <v>18330051920196</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920218</v>
+        <v>18330051920196</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920219</v>
+        <v>18330051920196</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920219</v>
+        <v>18330051920196</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920219</v>
+        <v>18330051920197</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920219</v>
+        <v>18330051920197</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -3664,96 +3664,96 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920219</v>
+        <v>18330051920197</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920225</v>
+        <v>18330051920197</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920225</v>
+        <v>18330051920197</v>
       </c>
       <c r="B26" t="s">
         <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920225</v>
+        <v>18330051920197</v>
       </c>
       <c r="B27" t="s">
         <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920225</v>
+        <v>18330051920200</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -3764,16 +3764,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920225</v>
+        <v>18330051920200</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -3784,62 +3784,2322 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920227</v>
+        <v>18330051920200</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920227</v>
+        <v>18330051920200</v>
       </c>
       <c r="B31" t="s">
         <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
+        <v>18330051920201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>18330051920201</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>18330051920201</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>18330051920201</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>18330051920204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>18330051920204</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>18330051920204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>18330051920204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>18330051920204</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>18330051920203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>18330051920203</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>18330051920203</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>18330051920203</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>18330051920094</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>18330051920094</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>18330051920094</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>18330051920094</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>18330051920209</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>18330051920209</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>18330051920209</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>18330051920209</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>18330051920210</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>18330051920210</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>18330051920210</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>18330051920210</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>18330051920205</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>18330051920205</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>18330051920205</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>18330051920205</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>18330051920211</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>18330051920211</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>18330051920211</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>18330051920211</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>18330051920212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>18330051920212</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>18330051920212</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>18330051920212</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>18330051920213</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>18330051920213</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>18330051920213</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>18330051920213</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>18330051920213</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>18330051920215</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>18330051920215</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>18330051920215</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>18330051920215</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>18330051920214</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>18330051920214</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>18330051920214</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>18330051920214</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>18330051920216</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>18330051920216</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>18330051920216</v>
+      </c>
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" t="s">
+        <v>138</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>18330051920216</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>18330051920218</v>
+      </c>
+      <c r="B86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>18330051920218</v>
+      </c>
+      <c r="B87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>18330051920218</v>
+      </c>
+      <c r="B88" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>18330051920218</v>
+      </c>
+      <c r="B89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>18330051920218</v>
+      </c>
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>18330051920217</v>
+      </c>
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E91" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>18330051920217</v>
+      </c>
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" t="s">
+        <v>140</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>18330051920217</v>
+      </c>
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" t="s">
+        <v>140</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>18330051920217</v>
+      </c>
+      <c r="B94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" t="s">
+        <v>140</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>18330051920219</v>
+      </c>
+      <c r="B95" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>18330051920219</v>
+      </c>
+      <c r="B96" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" t="s">
+        <v>111</v>
+      </c>
+      <c r="D96" t="s">
+        <v>141</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>18330051920219</v>
+      </c>
+      <c r="B97" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" t="s">
+        <v>141</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>18330051920219</v>
+      </c>
+      <c r="B98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>18330051920219</v>
+      </c>
+      <c r="B99" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" t="s">
+        <v>141</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>18330051920223</v>
+      </c>
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" t="s">
+        <v>112</v>
+      </c>
+      <c r="D100" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>18330051920223</v>
+      </c>
+      <c r="B101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>18330051920223</v>
+      </c>
+      <c r="B102" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" t="s">
+        <v>142</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>18330051920223</v>
+      </c>
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" t="s">
+        <v>142</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>18330051920225</v>
+      </c>
+      <c r="B104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>18330051920225</v>
+      </c>
+      <c r="B105" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" t="s">
+        <v>143</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>18330051920225</v>
+      </c>
+      <c r="B106" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>18330051920225</v>
+      </c>
+      <c r="B107" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" t="s">
+        <v>143</v>
+      </c>
+      <c r="E107" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>18330051920225</v>
+      </c>
+      <c r="B108" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" t="s">
+        <v>143</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
         <v>18330051920227</v>
       </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B109" t="s">
         <v>86</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C109" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" t="s">
         <v>7</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F109" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>18330051920227</v>
+      </c>
+      <c r="B110" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>18330051920227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>18330051920227</v>
+      </c>
+      <c r="B112" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>18330051920227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>18330051920229</v>
+      </c>
+      <c r="B114" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" t="s">
+        <v>145</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>18330051920229</v>
+      </c>
+      <c r="B115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" t="s">
+        <v>115</v>
+      </c>
+      <c r="D115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>18330051920229</v>
+      </c>
+      <c r="B116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" t="s">
+        <v>145</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>18330051920229</v>
+      </c>
+      <c r="B117" t="s">
+        <v>87</v>
+      </c>
+      <c r="C117" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" t="s">
+        <v>145</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>18330051920230</v>
+      </c>
+      <c r="B118" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" t="s">
+        <v>72</v>
+      </c>
+      <c r="D118" t="s">
+        <v>146</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>18330051920230</v>
+      </c>
+      <c r="B119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" t="s">
+        <v>72</v>
+      </c>
+      <c r="D119" t="s">
+        <v>146</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>18330051920230</v>
+      </c>
+      <c r="B120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D120" t="s">
+        <v>146</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>18330051920230</v>
+      </c>
+      <c r="B121" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" t="s">
+        <v>72</v>
+      </c>
+      <c r="D121" t="s">
+        <v>146</v>
+      </c>
+      <c r="E121" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>18330051920231</v>
+      </c>
+      <c r="B122" t="s">
+        <v>89</v>
+      </c>
+      <c r="C122" t="s">
+        <v>116</v>
+      </c>
+      <c r="D122" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>18330051920231</v>
+      </c>
+      <c r="B123" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123" t="s">
+        <v>116</v>
+      </c>
+      <c r="D123" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>18330051920231</v>
+      </c>
+      <c r="B124" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" t="s">
+        <v>116</v>
+      </c>
+      <c r="D124" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>18330051920231</v>
+      </c>
+      <c r="B125" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125" t="s">
+        <v>116</v>
+      </c>
+      <c r="D125" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>18330051920232</v>
+      </c>
+      <c r="B126" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" t="s">
+        <v>148</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>18330051920232</v>
+      </c>
+      <c r="B127" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127" t="s">
+        <v>148</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>18330051920232</v>
+      </c>
+      <c r="B128" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" t="s">
+        <v>148</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>18330051920232</v>
+      </c>
+      <c r="B129" t="s">
+        <v>90</v>
+      </c>
+      <c r="C129" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129" t="s">
+        <v>148</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>18330051920186</v>
+      </c>
+      <c r="B130" t="s">
+        <v>91</v>
+      </c>
+      <c r="C130" t="s">
+        <v>76</v>
+      </c>
+      <c r="D130" t="s">
+        <v>149</v>
+      </c>
+      <c r="E130" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>18330051920186</v>
+      </c>
+      <c r="B131" t="s">
+        <v>91</v>
+      </c>
+      <c r="C131" t="s">
+        <v>76</v>
+      </c>
+      <c r="D131" t="s">
+        <v>149</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>18330051920186</v>
+      </c>
+      <c r="B132" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132" t="s">
+        <v>76</v>
+      </c>
+      <c r="D132" t="s">
+        <v>149</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>18330051920186</v>
+      </c>
+      <c r="B133" t="s">
+        <v>91</v>
+      </c>
+      <c r="C133" t="s">
+        <v>76</v>
+      </c>
+      <c r="D133" t="s">
+        <v>149</v>
+      </c>
+      <c r="E133" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>18330051920233</v>
+      </c>
+      <c r="B134" t="s">
+        <v>92</v>
+      </c>
+      <c r="C134" t="s">
+        <v>79</v>
+      </c>
+      <c r="D134" t="s">
+        <v>150</v>
+      </c>
+      <c r="E134" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>18330051920233</v>
+      </c>
+      <c r="B135" t="s">
+        <v>92</v>
+      </c>
+      <c r="C135" t="s">
+        <v>79</v>
+      </c>
+      <c r="D135" t="s">
+        <v>150</v>
+      </c>
+      <c r="E135" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>18330051920233</v>
+      </c>
+      <c r="B136" t="s">
+        <v>92</v>
+      </c>
+      <c r="C136" t="s">
+        <v>79</v>
+      </c>
+      <c r="D136" t="s">
+        <v>150</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>18330051920233</v>
+      </c>
+      <c r="B137" t="s">
+        <v>92</v>
+      </c>
+      <c r="C137" t="s">
+        <v>79</v>
+      </c>
+      <c r="D137" t="s">
+        <v>150</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>18330051920137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138" t="s">
+        <v>118</v>
+      </c>
+      <c r="D138" t="s">
+        <v>151</v>
+      </c>
+      <c r="E138" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>18330051920137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" t="s">
+        <v>118</v>
+      </c>
+      <c r="D139" t="s">
+        <v>151</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>18330051920137</v>
+      </c>
+      <c r="B140" t="s">
+        <v>93</v>
+      </c>
+      <c r="C140" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" t="s">
+        <v>151</v>
+      </c>
+      <c r="E140" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>18330051920137</v>
+      </c>
+      <c r="B141" t="s">
+        <v>93</v>
+      </c>
+      <c r="C141" t="s">
+        <v>118</v>
+      </c>
+      <c r="D141" t="s">
+        <v>151</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>18330051920234</v>
+      </c>
+      <c r="B142" t="s">
+        <v>94</v>
+      </c>
+      <c r="C142" t="s">
+        <v>119</v>
+      </c>
+      <c r="D142" t="s">
+        <v>152</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>18330051920234</v>
+      </c>
+      <c r="B143" t="s">
+        <v>94</v>
+      </c>
+      <c r="C143" t="s">
+        <v>119</v>
+      </c>
+      <c r="D143" t="s">
+        <v>152</v>
+      </c>
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>18330051920234</v>
+      </c>
+      <c r="B144" t="s">
+        <v>94</v>
+      </c>
+      <c r="C144" t="s">
+        <v>119</v>
+      </c>
+      <c r="D144" t="s">
+        <v>152</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>18330051920234</v>
+      </c>
+      <c r="B145" t="s">
+        <v>94</v>
+      </c>
+      <c r="C145" t="s">
+        <v>119</v>
+      </c>
+      <c r="D145" t="s">
+        <v>152</v>
+      </c>
+      <c r="E145" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3881,67 +6141,67 @@
         <v>18330051920197</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920204</v>
+        <v>18330051920219</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920214</v>
+        <v>18330051920204</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920219</v>
+        <v>18330051920214</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3949,64 +6209,64 @@
         <v>18330051920225</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920227</v>
+        <v>18330051920218</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920218</v>
+        <v>18330051920213</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920213</v>
+        <v>18330051920227</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4017,13 +6277,13 @@
         <v>18330051920192</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4034,13 +6294,13 @@
         <v>18330051920193</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4051,13 +6311,13 @@
         <v>18330051920194</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4068,13 +6328,13 @@
         <v>18330051920087</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4085,13 +6345,13 @@
         <v>18330051920196</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4102,13 +6362,13 @@
         <v>18330051920200</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4119,13 +6379,13 @@
         <v>18330051920201</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4136,13 +6396,13 @@
         <v>18330051920203</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4153,13 +6413,13 @@
         <v>18330051920094</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4170,13 +6430,13 @@
         <v>18330051920209</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4187,13 +6447,13 @@
         <v>18330051920210</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4204,13 +6464,13 @@
         <v>18330051920205</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4221,13 +6481,13 @@
         <v>18330051920211</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4238,13 +6498,13 @@
         <v>18330051920212</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4255,13 +6515,13 @@
         <v>18330051920215</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4272,13 +6532,13 @@
         <v>18330051920216</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4289,13 +6549,13 @@
         <v>18330051920217</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4306,13 +6566,13 @@
         <v>18330051920223</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4323,10 +6583,10 @@
         <v>18330051920229</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>145</v>
@@ -4340,10 +6600,10 @@
         <v>18330051920230</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
         <v>146</v>
@@ -4357,10 +6617,10 @@
         <v>18330051920231</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
         <v>147</v>
@@ -4374,10 +6634,10 @@
         <v>18330051920232</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
         <v>148</v>
@@ -4391,10 +6651,10 @@
         <v>18330051920186</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
         <v>149</v>
@@ -4408,10 +6668,10 @@
         <v>18330051920233</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
         <v>150</v>
@@ -4425,10 +6685,10 @@
         <v>18330051920137</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
         <v>151</v>
@@ -4442,10 +6702,10 @@
         <v>18330051920234</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
         <v>152</v>
@@ -4461,7 +6721,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4494,75 +6754,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920218</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920218</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920213</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/6ARHM - Estadisticos 2020.xlsx
+++ b/grupos/6ARHM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="153">
   <si>
     <t>Materia</t>
   </si>
@@ -185,13 +185,13 @@
     <t>Velasco Sanchez David</t>
   </si>
   <si>
+    <t>Ochoa Martínez Mayeli</t>
+  </si>
+  <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
     <t>Duran Amezcua Maria Angelica</t>
-  </si>
-  <si>
-    <t>Morales Vallejo Jorge Luis</t>
-  </si>
-  <si>
-    <t>Ochoa Martínez Mayeli</t>
   </si>
   <si>
     <t>Castro Vasquez Julieta</t>
@@ -957,10 +957,10 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -1016,10 +1016,10 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -1031,7 +1031,7 @@
         <v>10</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -1075,10 +1075,10 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -1090,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1134,10 +1134,10 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J7">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1193,10 +1193,10 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <v>10</v>
@@ -1208,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1234,10 +1234,10 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -1252,10 +1252,10 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>-1</v>
@@ -1311,10 +1311,10 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1326,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1370,10 +1370,10 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1385,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1411,10 +1411,10 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -1432,7 +1432,7 @@
         <v>-1</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>7</v>
@@ -1488,10 +1488,10 @@
         <v>8</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J13">
         <v>7</v>
@@ -1503,7 +1503,7 @@
         <v>7</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1547,10 +1547,10 @@
         <v>8</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J14">
         <v>8</v>
@@ -1562,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1606,10 +1606,10 @@
         <v>6</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <v>7</v>
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1665,10 +1665,10 @@
         <v>6</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -1680,7 +1680,7 @@
         <v>7</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1724,10 +1724,10 @@
         <v>10</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <v>10</v>
@@ -1739,7 +1739,7 @@
         <v>9</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1783,10 +1783,10 @@
         <v>8</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -1798,7 +1798,7 @@
         <v>7</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1842,10 +1842,10 @@
         <v>10</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J19">
         <v>10</v>
@@ -1857,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1901,10 +1901,10 @@
         <v>6</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J20">
         <v>-1</v>
@@ -1942,10 +1942,10 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1960,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -2019,10 +2019,10 @@
         <v>8</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J22">
         <v>9</v>
@@ -2034,7 +2034,7 @@
         <v>7</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2078,10 +2078,10 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J23">
         <v>6</v>
@@ -2093,7 +2093,7 @@
         <v>8</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2137,10 +2137,10 @@
         <v>8</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J24">
         <v>6</v>
@@ -2196,10 +2196,10 @@
         <v>6</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <v>-1</v>
@@ -2237,10 +2237,10 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -2258,7 +2258,7 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>-1</v>
@@ -2314,10 +2314,10 @@
         <v>8</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J27">
         <v>6</v>
@@ -2329,7 +2329,7 @@
         <v>6</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2355,10 +2355,10 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -2373,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2432,10 +2432,10 @@
         <v>5</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <v>-1</v>
@@ -2491,10 +2491,10 @@
         <v>9</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J30">
         <v>8</v>
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2550,10 +2550,10 @@
         <v>8</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J31">
         <v>7</v>
@@ -2565,7 +2565,7 @@
         <v>8</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2609,10 +2609,10 @@
         <v>10</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J32">
         <v>9</v>
@@ -2624,7 +2624,7 @@
         <v>9</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -2668,10 +2668,10 @@
         <v>10</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J33">
         <v>8</v>
@@ -2683,7 +2683,7 @@
         <v>9</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -2727,10 +2727,10 @@
         <v>8</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J34">
         <v>9</v>
@@ -2742,7 +2742,7 @@
         <v>8</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N34">
         <v>-1</v>
@@ -2786,10 +2786,10 @@
         <v>10</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J35">
         <v>6</v>
@@ -2801,7 +2801,7 @@
         <v>7</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -2845,10 +2845,10 @@
         <v>8</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J36">
         <v>9</v>
@@ -2860,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -2904,10 +2904,10 @@
         <v>9</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J37">
         <v>6</v>
@@ -2919,7 +2919,7 @@
         <v>8</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N37">
         <v>-1</v>
@@ -3004,30 +3004,27 @@
         <v>34</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>26</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>76.47</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>8.5</v>
-      </c>
       <c r="I2">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J2">
-        <v>23.53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -3036,25 +3033,25 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>82.34999999999999</v>
+        <v>73.53</v>
       </c>
       <c r="G3">
-        <v>17.65</v>
+        <v>26.47</v>
       </c>
       <c r="H3">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3068,30 +3065,30 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>82.34999999999999</v>
+        <v>79.41</v>
       </c>
       <c r="G4">
-        <v>8.82</v>
+        <v>11.76</v>
       </c>
       <c r="H4">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>8.82</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -3112,13 +3109,13 @@
         <v>17.65</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3132,25 +3129,25 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="G6">
+        <v>17.65</v>
+      </c>
+      <c r="H6">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>85.29000000000001</v>
-      </c>
-      <c r="G6">
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="H6">
-        <v>8.6</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>14.71</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3167,22 +3164,22 @@
         <v>29</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>85.29000000000001</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>14.71</v>
       </c>
       <c r="H7">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>14.71</v>
+        <v>5.88</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3189,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3236,64 +3233,64 @@
         <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920192</v>
+        <v>18330051920193</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920192</v>
+        <v>18330051920194</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920192</v>
+        <v>18330051920087</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -3304,79 +3301,79 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920193</v>
+        <v>18330051920196</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920193</v>
+        <v>18330051920197</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920193</v>
+        <v>18330051920197</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920193</v>
+        <v>18330051920197</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -3384,36 +3381,36 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920194</v>
+        <v>18330051920197</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920194</v>
+        <v>18330051920200</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -3424,176 +3421,176 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920194</v>
+        <v>18330051920201</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920194</v>
+        <v>18330051920204</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920087</v>
+        <v>18330051920204</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920087</v>
+        <v>18330051920204</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920087</v>
+        <v>18330051920204</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920087</v>
+        <v>18330051920203</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920196</v>
+        <v>18330051920094</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920196</v>
+        <v>18330051920209</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920196</v>
+        <v>18330051920210</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -3604,56 +3601,56 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920196</v>
+        <v>18330051920205</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920197</v>
+        <v>18330051920211</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920197</v>
+        <v>18330051920212</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -3664,136 +3661,136 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920197</v>
+        <v>18330051920213</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920197</v>
+        <v>18330051920213</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920197</v>
+        <v>18330051920213</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920197</v>
+        <v>18330051920215</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920200</v>
+        <v>18330051920214</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920200</v>
+        <v>18330051920214</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920200</v>
+        <v>18330051920216</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -3804,196 +3801,196 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920200</v>
+        <v>18330051920218</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920201</v>
+        <v>18330051920218</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920201</v>
+        <v>18330051920218</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920201</v>
+        <v>18330051920217</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920201</v>
+        <v>18330051920217</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920204</v>
+        <v>18330051920219</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920204</v>
+        <v>18330051920219</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920204</v>
+        <v>18330051920219</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920204</v>
+        <v>18330051920219</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920204</v>
+        <v>18330051920223</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -4004,16 +4001,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920203</v>
+        <v>18330051920225</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -4024,19 +4021,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920203</v>
+        <v>18330051920225</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
         <v>57</v>
@@ -4044,116 +4041,116 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920203</v>
+        <v>18330051920225</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920203</v>
+        <v>18330051920227</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920094</v>
+        <v>18330051920227</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920094</v>
+        <v>18330051920227</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920094</v>
+        <v>18330051920229</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920094</v>
+        <v>18330051920230</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -4164,16 +4161,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920209</v>
+        <v>18330051920231</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -4184,1922 +4181,102 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920209</v>
+        <v>18330051920232</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920209</v>
+        <v>18330051920186</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920209</v>
+        <v>18330051920233</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>18330051920210</v>
+        <v>18330051920137</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>18330051920210</v>
+        <v>18330051920234</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>18330051920210</v>
-      </c>
-      <c r="B55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" t="s">
-        <v>131</v>
-      </c>
-      <c r="E55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>18330051920210</v>
-      </c>
-      <c r="B56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>18330051920205</v>
-      </c>
-      <c r="B57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>18330051920205</v>
-      </c>
-      <c r="B58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>18330051920205</v>
-      </c>
-      <c r="B59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>18330051920205</v>
-      </c>
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>18330051920211</v>
-      </c>
-      <c r="B61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>18330051920211</v>
-      </c>
-      <c r="B62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62" t="s">
-        <v>133</v>
-      </c>
-      <c r="E62" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>18330051920211</v>
-      </c>
-      <c r="B63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>18330051920211</v>
-      </c>
-      <c r="B64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>18330051920212</v>
-      </c>
-      <c r="B65" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" t="s">
-        <v>74</v>
-      </c>
-      <c r="D65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>18330051920212</v>
-      </c>
-      <c r="B66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>18330051920212</v>
-      </c>
-      <c r="B67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>18330051920212</v>
-      </c>
-      <c r="B68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>18330051920213</v>
-      </c>
-      <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" t="s">
-        <v>135</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>18330051920213</v>
-      </c>
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" t="s">
-        <v>135</v>
-      </c>
-      <c r="E70" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>18330051920213</v>
-      </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" t="s">
-        <v>135</v>
-      </c>
-      <c r="E71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>18330051920213</v>
-      </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" t="s">
-        <v>135</v>
-      </c>
-      <c r="E72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>18330051920213</v>
-      </c>
-      <c r="B73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" t="s">
-        <v>135</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>18330051920215</v>
-      </c>
-      <c r="B74" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" t="s">
-        <v>136</v>
-      </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>18330051920215</v>
-      </c>
-      <c r="B75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75" t="s">
-        <v>136</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>18330051920215</v>
-      </c>
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" t="s">
-        <v>136</v>
-      </c>
-      <c r="E76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>18330051920215</v>
-      </c>
-      <c r="B77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77" t="s">
-        <v>136</v>
-      </c>
-      <c r="E77" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>18330051920214</v>
-      </c>
-      <c r="B78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" t="s">
-        <v>137</v>
-      </c>
-      <c r="E78" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>18330051920214</v>
-      </c>
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
-        <v>109</v>
-      </c>
-      <c r="D79" t="s">
-        <v>137</v>
-      </c>
-      <c r="E79" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>18330051920214</v>
-      </c>
-      <c r="B80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>18330051920214</v>
-      </c>
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" t="s">
-        <v>109</v>
-      </c>
-      <c r="D81" t="s">
-        <v>137</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>18330051920216</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" t="s">
-        <v>138</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>18330051920216</v>
-      </c>
-      <c r="B83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>18330051920216</v>
-      </c>
-      <c r="B84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" t="s">
-        <v>138</v>
-      </c>
-      <c r="E84" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>18330051920216</v>
-      </c>
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>18330051920218</v>
-      </c>
-      <c r="B86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
-        <v>104</v>
-      </c>
-      <c r="D86" t="s">
-        <v>139</v>
-      </c>
-      <c r="E86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>18330051920218</v>
-      </c>
-      <c r="B87" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" t="s">
-        <v>104</v>
-      </c>
-      <c r="D87" t="s">
-        <v>139</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>18330051920218</v>
-      </c>
-      <c r="B88" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" t="s">
-        <v>104</v>
-      </c>
-      <c r="D88" t="s">
-        <v>139</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>18330051920218</v>
-      </c>
-      <c r="B89" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" t="s">
-        <v>104</v>
-      </c>
-      <c r="D89" t="s">
-        <v>139</v>
-      </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>18330051920218</v>
-      </c>
-      <c r="B90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" t="s">
-        <v>104</v>
-      </c>
-      <c r="D90" t="s">
-        <v>139</v>
-      </c>
-      <c r="E90" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>18330051920217</v>
-      </c>
-      <c r="B91" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" t="s">
-        <v>74</v>
-      </c>
-      <c r="D91" t="s">
-        <v>140</v>
-      </c>
-      <c r="E91" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>18330051920217</v>
-      </c>
-      <c r="B92" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" t="s">
-        <v>74</v>
-      </c>
-      <c r="D92" t="s">
-        <v>140</v>
-      </c>
-      <c r="E92" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>18330051920217</v>
-      </c>
-      <c r="B93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" t="s">
-        <v>74</v>
-      </c>
-      <c r="D93" t="s">
-        <v>140</v>
-      </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>18330051920217</v>
-      </c>
-      <c r="B94" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" t="s">
-        <v>74</v>
-      </c>
-      <c r="D94" t="s">
-        <v>140</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>18330051920219</v>
-      </c>
-      <c r="B95" t="s">
-        <v>82</v>
-      </c>
-      <c r="C95" t="s">
-        <v>111</v>
-      </c>
-      <c r="D95" t="s">
-        <v>141</v>
-      </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>18330051920219</v>
-      </c>
-      <c r="B96" t="s">
-        <v>82</v>
-      </c>
-      <c r="C96" t="s">
-        <v>111</v>
-      </c>
-      <c r="D96" t="s">
-        <v>141</v>
-      </c>
-      <c r="E96" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>18330051920219</v>
-      </c>
-      <c r="B97" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" t="s">
-        <v>111</v>
-      </c>
-      <c r="D97" t="s">
-        <v>141</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>18330051920219</v>
-      </c>
-      <c r="B98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" t="s">
-        <v>111</v>
-      </c>
-      <c r="D98" t="s">
-        <v>141</v>
-      </c>
-      <c r="E98" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>18330051920219</v>
-      </c>
-      <c r="B99" t="s">
-        <v>82</v>
-      </c>
-      <c r="C99" t="s">
-        <v>111</v>
-      </c>
-      <c r="D99" t="s">
-        <v>141</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>18330051920223</v>
-      </c>
-      <c r="B100" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" t="s">
-        <v>112</v>
-      </c>
-      <c r="D100" t="s">
-        <v>142</v>
-      </c>
-      <c r="E100" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>18330051920223</v>
-      </c>
-      <c r="B101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" t="s">
-        <v>142</v>
-      </c>
-      <c r="E101" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>18330051920223</v>
-      </c>
-      <c r="B102" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" t="s">
-        <v>142</v>
-      </c>
-      <c r="E102" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>18330051920223</v>
-      </c>
-      <c r="B103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C103" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" t="s">
-        <v>142</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>18330051920225</v>
-      </c>
-      <c r="B104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C104" t="s">
-        <v>113</v>
-      </c>
-      <c r="D104" t="s">
-        <v>143</v>
-      </c>
-      <c r="E104" t="s">
-        <v>5</v>
-      </c>
-      <c r="F104" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>18330051920225</v>
-      </c>
-      <c r="B105" t="s">
-        <v>85</v>
-      </c>
-      <c r="C105" t="s">
-        <v>113</v>
-      </c>
-      <c r="D105" t="s">
-        <v>143</v>
-      </c>
-      <c r="E105" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>18330051920225</v>
-      </c>
-      <c r="B106" t="s">
-        <v>85</v>
-      </c>
-      <c r="C106" t="s">
-        <v>113</v>
-      </c>
-      <c r="D106" t="s">
-        <v>143</v>
-      </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>18330051920225</v>
-      </c>
-      <c r="B107" t="s">
-        <v>85</v>
-      </c>
-      <c r="C107" t="s">
-        <v>113</v>
-      </c>
-      <c r="D107" t="s">
-        <v>143</v>
-      </c>
-      <c r="E107" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>18330051920225</v>
-      </c>
-      <c r="B108" t="s">
-        <v>85</v>
-      </c>
-      <c r="C108" t="s">
-        <v>113</v>
-      </c>
-      <c r="D108" t="s">
-        <v>143</v>
-      </c>
-      <c r="E108" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>18330051920227</v>
-      </c>
-      <c r="B109" t="s">
-        <v>86</v>
-      </c>
-      <c r="C109" t="s">
-        <v>114</v>
-      </c>
-      <c r="D109" t="s">
-        <v>144</v>
-      </c>
-      <c r="E109" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>18330051920227</v>
-      </c>
-      <c r="B110" t="s">
-        <v>86</v>
-      </c>
-      <c r="C110" t="s">
-        <v>114</v>
-      </c>
-      <c r="D110" t="s">
-        <v>144</v>
-      </c>
-      <c r="E110" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>18330051920227</v>
-      </c>
-      <c r="B111" t="s">
-        <v>86</v>
-      </c>
-      <c r="C111" t="s">
-        <v>114</v>
-      </c>
-      <c r="D111" t="s">
-        <v>144</v>
-      </c>
-      <c r="E111" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>18330051920227</v>
-      </c>
-      <c r="B112" t="s">
-        <v>86</v>
-      </c>
-      <c r="C112" t="s">
-        <v>114</v>
-      </c>
-      <c r="D112" t="s">
-        <v>144</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>18330051920227</v>
-      </c>
-      <c r="B113" t="s">
-        <v>86</v>
-      </c>
-      <c r="C113" t="s">
-        <v>114</v>
-      </c>
-      <c r="D113" t="s">
-        <v>144</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>18330051920229</v>
-      </c>
-      <c r="B114" t="s">
-        <v>87</v>
-      </c>
-      <c r="C114" t="s">
-        <v>115</v>
-      </c>
-      <c r="D114" t="s">
-        <v>145</v>
-      </c>
-      <c r="E114" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>18330051920229</v>
-      </c>
-      <c r="B115" t="s">
-        <v>87</v>
-      </c>
-      <c r="C115" t="s">
-        <v>115</v>
-      </c>
-      <c r="D115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E115" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>18330051920229</v>
-      </c>
-      <c r="B116" t="s">
-        <v>87</v>
-      </c>
-      <c r="C116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D116" t="s">
-        <v>145</v>
-      </c>
-      <c r="E116" t="s">
-        <v>4</v>
-      </c>
-      <c r="F116" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>18330051920229</v>
-      </c>
-      <c r="B117" t="s">
-        <v>87</v>
-      </c>
-      <c r="C117" t="s">
-        <v>115</v>
-      </c>
-      <c r="D117" t="s">
-        <v>145</v>
-      </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>18330051920230</v>
-      </c>
-      <c r="B118" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" t="s">
-        <v>72</v>
-      </c>
-      <c r="D118" t="s">
-        <v>146</v>
-      </c>
-      <c r="E118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>18330051920230</v>
-      </c>
-      <c r="B119" t="s">
-        <v>88</v>
-      </c>
-      <c r="C119" t="s">
-        <v>72</v>
-      </c>
-      <c r="D119" t="s">
-        <v>146</v>
-      </c>
-      <c r="E119" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>18330051920230</v>
-      </c>
-      <c r="B120" t="s">
-        <v>88</v>
-      </c>
-      <c r="C120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D120" t="s">
-        <v>146</v>
-      </c>
-      <c r="E120" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>18330051920230</v>
-      </c>
-      <c r="B121" t="s">
-        <v>88</v>
-      </c>
-      <c r="C121" t="s">
-        <v>72</v>
-      </c>
-      <c r="D121" t="s">
-        <v>146</v>
-      </c>
-      <c r="E121" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>18330051920231</v>
-      </c>
-      <c r="B122" t="s">
-        <v>89</v>
-      </c>
-      <c r="C122" t="s">
-        <v>116</v>
-      </c>
-      <c r="D122" t="s">
-        <v>147</v>
-      </c>
-      <c r="E122" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>18330051920231</v>
-      </c>
-      <c r="B123" t="s">
-        <v>89</v>
-      </c>
-      <c r="C123" t="s">
-        <v>116</v>
-      </c>
-      <c r="D123" t="s">
-        <v>147</v>
-      </c>
-      <c r="E123" t="s">
-        <v>4</v>
-      </c>
-      <c r="F123" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>18330051920231</v>
-      </c>
-      <c r="B124" t="s">
-        <v>89</v>
-      </c>
-      <c r="C124" t="s">
-        <v>116</v>
-      </c>
-      <c r="D124" t="s">
-        <v>147</v>
-      </c>
-      <c r="E124" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>18330051920231</v>
-      </c>
-      <c r="B125" t="s">
-        <v>89</v>
-      </c>
-      <c r="C125" t="s">
-        <v>116</v>
-      </c>
-      <c r="D125" t="s">
-        <v>147</v>
-      </c>
-      <c r="E125" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>18330051920232</v>
-      </c>
-      <c r="B126" t="s">
-        <v>90</v>
-      </c>
-      <c r="C126" t="s">
-        <v>117</v>
-      </c>
-      <c r="D126" t="s">
-        <v>148</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>18330051920232</v>
-      </c>
-      <c r="B127" t="s">
-        <v>90</v>
-      </c>
-      <c r="C127" t="s">
-        <v>117</v>
-      </c>
-      <c r="D127" t="s">
-        <v>148</v>
-      </c>
-      <c r="E127" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>18330051920232</v>
-      </c>
-      <c r="B128" t="s">
-        <v>90</v>
-      </c>
-      <c r="C128" t="s">
-        <v>117</v>
-      </c>
-      <c r="D128" t="s">
-        <v>148</v>
-      </c>
-      <c r="E128" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>18330051920232</v>
-      </c>
-      <c r="B129" t="s">
-        <v>90</v>
-      </c>
-      <c r="C129" t="s">
-        <v>117</v>
-      </c>
-      <c r="D129" t="s">
-        <v>148</v>
-      </c>
-      <c r="E129" t="s">
-        <v>4</v>
-      </c>
-      <c r="F129" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>18330051920186</v>
-      </c>
-      <c r="B130" t="s">
-        <v>91</v>
-      </c>
-      <c r="C130" t="s">
-        <v>76</v>
-      </c>
-      <c r="D130" t="s">
-        <v>149</v>
-      </c>
-      <c r="E130" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>18330051920186</v>
-      </c>
-      <c r="B131" t="s">
-        <v>91</v>
-      </c>
-      <c r="C131" t="s">
-        <v>76</v>
-      </c>
-      <c r="D131" t="s">
-        <v>149</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>18330051920186</v>
-      </c>
-      <c r="B132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C132" t="s">
-        <v>76</v>
-      </c>
-      <c r="D132" t="s">
-        <v>149</v>
-      </c>
-      <c r="E132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>18330051920186</v>
-      </c>
-      <c r="B133" t="s">
-        <v>91</v>
-      </c>
-      <c r="C133" t="s">
-        <v>76</v>
-      </c>
-      <c r="D133" t="s">
-        <v>149</v>
-      </c>
-      <c r="E133" t="s">
-        <v>4</v>
-      </c>
-      <c r="F133" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>18330051920233</v>
-      </c>
-      <c r="B134" t="s">
-        <v>92</v>
-      </c>
-      <c r="C134" t="s">
-        <v>79</v>
-      </c>
-      <c r="D134" t="s">
-        <v>150</v>
-      </c>
-      <c r="E134" t="s">
-        <v>5</v>
-      </c>
-      <c r="F134" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>18330051920233</v>
-      </c>
-      <c r="B135" t="s">
-        <v>92</v>
-      </c>
-      <c r="C135" t="s">
-        <v>79</v>
-      </c>
-      <c r="D135" t="s">
-        <v>150</v>
-      </c>
-      <c r="E135" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>18330051920233</v>
-      </c>
-      <c r="B136" t="s">
-        <v>92</v>
-      </c>
-      <c r="C136" t="s">
-        <v>79</v>
-      </c>
-      <c r="D136" t="s">
-        <v>150</v>
-      </c>
-      <c r="E136" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>18330051920233</v>
-      </c>
-      <c r="B137" t="s">
-        <v>92</v>
-      </c>
-      <c r="C137" t="s">
-        <v>79</v>
-      </c>
-      <c r="D137" t="s">
-        <v>150</v>
-      </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>18330051920137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>93</v>
-      </c>
-      <c r="C138" t="s">
-        <v>118</v>
-      </c>
-      <c r="D138" t="s">
-        <v>151</v>
-      </c>
-      <c r="E138" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>18330051920137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>93</v>
-      </c>
-      <c r="C139" t="s">
-        <v>118</v>
-      </c>
-      <c r="D139" t="s">
-        <v>151</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>18330051920137</v>
-      </c>
-      <c r="B140" t="s">
-        <v>93</v>
-      </c>
-      <c r="C140" t="s">
-        <v>118</v>
-      </c>
-      <c r="D140" t="s">
-        <v>151</v>
-      </c>
-      <c r="E140" t="s">
-        <v>5</v>
-      </c>
-      <c r="F140" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>18330051920137</v>
-      </c>
-      <c r="B141" t="s">
-        <v>93</v>
-      </c>
-      <c r="C141" t="s">
-        <v>118</v>
-      </c>
-      <c r="D141" t="s">
-        <v>151</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>18330051920234</v>
-      </c>
-      <c r="B142" t="s">
-        <v>94</v>
-      </c>
-      <c r="C142" t="s">
-        <v>119</v>
-      </c>
-      <c r="D142" t="s">
-        <v>152</v>
-      </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>18330051920234</v>
-      </c>
-      <c r="B143" t="s">
-        <v>94</v>
-      </c>
-      <c r="C143" t="s">
-        <v>119</v>
-      </c>
-      <c r="D143" t="s">
-        <v>152</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>18330051920234</v>
-      </c>
-      <c r="B144" t="s">
-        <v>94</v>
-      </c>
-      <c r="C144" t="s">
-        <v>119</v>
-      </c>
-      <c r="D144" t="s">
-        <v>152</v>
-      </c>
-      <c r="E144" t="s">
-        <v>7</v>
-      </c>
-      <c r="F144" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>18330051920234</v>
-      </c>
-      <c r="B145" t="s">
-        <v>94</v>
-      </c>
-      <c r="C145" t="s">
-        <v>119</v>
-      </c>
-      <c r="D145" t="s">
-        <v>152</v>
-      </c>
-      <c r="E145" t="s">
-        <v>4</v>
-      </c>
-      <c r="F145" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6155,16 +4332,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920219</v>
+        <v>18330051920204</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -6172,33 +4349,33 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920204</v>
+        <v>18330051920219</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920214</v>
+        <v>18330051920213</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -6206,16 +4383,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920225</v>
+        <v>18330051920218</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -6223,342 +4400,342 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920218</v>
+        <v>18330051920225</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920213</v>
+        <v>18330051920227</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920227</v>
+        <v>18330051920214</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920192</v>
+        <v>18330051920217</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920193</v>
+        <v>18330051920192</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920194</v>
+        <v>18330051920193</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920087</v>
+        <v>18330051920194</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920196</v>
+        <v>18330051920087</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920200</v>
+        <v>18330051920196</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920201</v>
+        <v>18330051920200</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920203</v>
+        <v>18330051920201</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920094</v>
+        <v>18330051920203</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920209</v>
+        <v>18330051920094</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920210</v>
+        <v>18330051920209</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920205</v>
+        <v>18330051920210</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920211</v>
+        <v>18330051920205</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920212</v>
+        <v>18330051920211</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920215</v>
+        <v>18330051920212</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920216</v>
+        <v>18330051920215</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920217</v>
+        <v>18330051920216</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6575,7 +4752,7 @@
         <v>142</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6592,7 +4769,7 @@
         <v>145</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6609,7 +4786,7 @@
         <v>146</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6626,7 +4803,7 @@
         <v>147</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6643,7 +4820,7 @@
         <v>148</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6660,7 +4837,7 @@
         <v>149</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6677,7 +4854,7 @@
         <v>150</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6694,7 +4871,7 @@
         <v>151</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6711,7 +4888,7 @@
         <v>152</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6721,7 +4898,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6751,7 +4928,628 @@
         <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920087</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920196</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920094</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18330051920209</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>18330051920205</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18330051920211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>18330051920212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18330051920215</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18330051920216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18330051920223</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>18330051920229</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>18330051920230</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>18330051920231</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>18330051920232</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>18330051920186</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>18330051920233</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>18330051920137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>18330051920234</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6ARHM - Estadisticos 2020.xlsx
+++ b/grupos/6ARHM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="153">
   <si>
     <t>Materia</t>
   </si>
@@ -212,6 +212,102 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>LADINO</t>
+  </si>
+  <si>
+    <t>LOBATO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
+    <t>NEPOMUCENO</t>
+  </si>
+  <si>
+    <t>VALLEJO</t>
+  </si>
+  <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>SESMA</t>
+  </si>
+  <si>
+    <t>URBINA</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>ENCARNACION</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>LINDA MICHELLE</t>
+  </si>
+  <si>
+    <t>DIANA LAURA</t>
+  </si>
+  <si>
+    <t>FLOR LIZZETH</t>
+  </si>
+  <si>
+    <t>MARIBEL</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>JAIRO NEMESIO</t>
+  </si>
+  <si>
+    <t>REBECA MELISA</t>
+  </si>
+  <si>
+    <t>JUAN DANIEL</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
     <t>ALDAZABA</t>
   </si>
   <si>
@@ -227,24 +323,12 @@
     <t>BRAVO</t>
   </si>
   <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
     <t>CERON</t>
   </si>
   <si>
     <t>COCOTLE</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>DE JESUS</t>
   </si>
   <si>
@@ -254,33 +338,12 @@
     <t>JUAREZ</t>
   </si>
   <si>
-    <t>LADINO</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>LOBATO</t>
-  </si>
-  <si>
     <t>LUNA</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
-    <t>NEPOMUCENO</t>
-  </si>
-  <si>
     <t>NIETO</t>
   </si>
   <si>
@@ -314,57 +377,27 @@
     <t>PACHECO</t>
   </si>
   <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
     <t>SANTIAGO</t>
   </si>
   <si>
-    <t>PALACIOS</t>
-  </si>
-  <si>
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>SESMA</t>
-  </si>
-  <si>
     <t>CARVAJAL</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>APALE</t>
   </si>
   <si>
     <t>CASTAÑEDA</t>
   </si>
   <si>
-    <t>URBINA</t>
-  </si>
-  <si>
     <t>AGUILAR</t>
   </si>
   <si>
-    <t>JOSE</t>
-  </si>
-  <si>
     <t>ANGEL</t>
   </si>
   <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
     <t>MONSTRANZO</t>
   </si>
   <si>
@@ -395,21 +428,12 @@
     <t>LAUDY VANESSA</t>
   </si>
   <si>
-    <t>LINDA MICHELLE</t>
-  </si>
-  <si>
     <t>LIZETH</t>
   </si>
   <si>
-    <t>DIANA LAURA</t>
-  </si>
-  <si>
     <t>VIVIANA</t>
   </si>
   <si>
-    <t>FLOR LIZZETH</t>
-  </si>
-  <si>
     <t>LISBET</t>
   </si>
   <si>
@@ -425,34 +449,10 @@
     <t>SEHANI</t>
   </si>
   <si>
-    <t>MARIBEL</t>
-  </si>
-  <si>
     <t>ANGEL DE JESUS</t>
   </si>
   <si>
-    <t>MIGUEL</t>
-  </si>
-  <si>
     <t>ARELI</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>JAIRO NEMESIO</t>
-  </si>
-  <si>
-    <t>REBECA MELISA</t>
-  </si>
-  <si>
-    <t>JUAN DANIEL</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
   </si>
   <si>
     <t>LOURDES</t>
@@ -966,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>9</v>
@@ -1025,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>10</v>
@@ -1202,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -1243,7 +1243,7 @@
         <v>-1</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1320,7 +1320,7 @@
         <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L10">
         <v>6</v>
@@ -1379,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -1420,7 +1420,7 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -1497,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L13">
         <v>7</v>
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -1674,7 +1674,7 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>7</v>
@@ -1733,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L17">
         <v>9</v>
@@ -1792,7 +1792,7 @@
         <v>9</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L18">
         <v>7</v>
@@ -1851,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>9</v>
@@ -1892,7 +1892,7 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -1951,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -2028,7 +2028,7 @@
         <v>9</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L22">
         <v>7</v>
@@ -2087,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>8</v>
@@ -2187,7 +2187,7 @@
         <v>-1</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -2246,7 +2246,7 @@
         <v>-1</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -2364,7 +2364,7 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -2423,7 +2423,7 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -2500,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L30">
         <v>9</v>
@@ -2559,7 +2559,7 @@
         <v>7</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>8</v>
@@ -2618,7 +2618,7 @@
         <v>9</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L32">
         <v>9</v>
@@ -2677,7 +2677,7 @@
         <v>8</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L33">
         <v>9</v>
@@ -2736,7 +2736,7 @@
         <v>9</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L34">
         <v>8</v>
@@ -2795,7 +2795,7 @@
         <v>6</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L35">
         <v>7</v>
@@ -2854,7 +2854,7 @@
         <v>9</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L36">
         <v>6</v>
@@ -2913,7 +2913,7 @@
         <v>6</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L37">
         <v>8</v>
@@ -3004,22 +3004,25 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="G2">
-        <v>76.47</v>
+        <v>32.35</v>
+      </c>
+      <c r="H2">
+        <v>8.699999999999999</v>
       </c>
       <c r="I2">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>32.35</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3189,7 +3192,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3221,76 +3224,76 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920192</v>
+        <v>18330051920197</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920193</v>
+        <v>18330051920197</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920194</v>
+        <v>18330051920197</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920087</v>
+        <v>18330051920197</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -3301,96 +3304,96 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920196</v>
+        <v>18330051920204</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920197</v>
+        <v>18330051920204</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920197</v>
+        <v>18330051920204</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920197</v>
+        <v>18330051920204</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920197</v>
+        <v>18330051920094</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -3401,36 +3404,36 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920200</v>
+        <v>18330051920213</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920201</v>
+        <v>18330051920213</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -3441,96 +3444,96 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920204</v>
+        <v>18330051920213</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920204</v>
+        <v>18330051920214</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920204</v>
+        <v>18330051920214</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920204</v>
+        <v>18330051920218</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920203</v>
+        <v>18330051920218</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -3541,56 +3544,56 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920094</v>
+        <v>18330051920218</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920209</v>
+        <v>18330051920217</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920210</v>
+        <v>18330051920217</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -3601,36 +3604,36 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920205</v>
+        <v>18330051920219</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920211</v>
+        <v>18330051920219</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -3641,56 +3644,56 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920212</v>
+        <v>18330051920219</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920213</v>
+        <v>18330051920219</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920213</v>
+        <v>18330051920223</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -3701,36 +3704,36 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920213</v>
+        <v>18330051920225</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920215</v>
+        <v>18330051920225</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -3741,16 +3744,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920214</v>
+        <v>18330051920225</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -3761,16 +3764,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920214</v>
+        <v>18330051920227</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -3781,502 +3784,42 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920216</v>
+        <v>18330051920227</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920218</v>
+        <v>18330051920227</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>18330051920218</v>
-      </c>
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>18330051920218</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>18330051920217</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>18330051920217</v>
-      </c>
-      <c r="B35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>18330051920219</v>
-      </c>
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>18330051920219</v>
-      </c>
-      <c r="B37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>18330051920219</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>18330051920219</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>18330051920223</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>18330051920225</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" t="s">
-        <v>143</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>18330051920225</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>18330051920225</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>18330051920227</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>18330051920227</v>
-      </c>
-      <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>18330051920227</v>
-      </c>
-      <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>18330051920229</v>
-      </c>
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>18330051920230</v>
-      </c>
-      <c r="B48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>18330051920231</v>
-      </c>
-      <c r="B49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>18330051920232</v>
-      </c>
-      <c r="B50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>18330051920186</v>
-      </c>
-      <c r="B51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>18330051920233</v>
-      </c>
-      <c r="B52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>18330051920137</v>
-      </c>
-      <c r="B53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>18330051920234</v>
-      </c>
-      <c r="B54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4318,13 +3861,13 @@
         <v>18330051920197</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -4335,13 +3878,13 @@
         <v>18330051920204</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -4352,13 +3895,13 @@
         <v>18330051920219</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -4369,13 +3912,13 @@
         <v>18330051920213</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -4386,13 +3929,13 @@
         <v>18330051920218</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -4403,13 +3946,13 @@
         <v>18330051920225</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -4420,13 +3963,13 @@
         <v>18330051920227</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -4437,13 +3980,13 @@
         <v>18330051920214</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4454,13 +3997,13 @@
         <v>18330051920217</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4468,16 +4011,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920192</v>
+        <v>18330051920094</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4485,16 +4028,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920193</v>
+        <v>18330051920223</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4502,257 +4045,257 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920194</v>
+        <v>18330051920192</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920087</v>
+        <v>18330051920193</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920196</v>
+        <v>18330051920194</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920200</v>
+        <v>18330051920087</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920201</v>
+        <v>18330051920196</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920203</v>
+        <v>18330051920200</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920094</v>
+        <v>18330051920201</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920209</v>
+        <v>18330051920203</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920210</v>
+        <v>18330051920209</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920205</v>
+        <v>18330051920210</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920211</v>
+        <v>18330051920205</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920212</v>
+        <v>18330051920211</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920215</v>
+        <v>18330051920212</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920216</v>
+        <v>18330051920215</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920223</v>
+        <v>18330051920216</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4760,16 +4303,16 @@
         <v>18330051920229</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
         <v>145</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4777,16 +4320,16 @@
         <v>18330051920230</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
         <v>146</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4794,16 +4337,16 @@
         <v>18330051920231</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
         <v>147</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4811,16 +4354,16 @@
         <v>18330051920232</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
         <v>148</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4828,16 +4371,16 @@
         <v>18330051920186</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
         <v>149</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4845,16 +4388,16 @@
         <v>18330051920233</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
         <v>150</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4862,16 +4405,16 @@
         <v>18330051920137</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
         <v>151</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4879,16 +4422,16 @@
         <v>18330051920234</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
         <v>152</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4898,7 +4441,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4936,13 +4479,13 @@
         <v>18330051920217</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -4959,13 +4502,13 @@
         <v>18330051920217</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4979,16 +4522,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920192</v>
+        <v>18330051920094</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -5002,16 +4545,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920193</v>
+        <v>18330051920223</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -5020,535 +4563,6 @@
         <v>54</v>
       </c>
       <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920194</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920087</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920196</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920200</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920201</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920203</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920094</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920209</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>18330051920210</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>18330051920205</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>18330051920211</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>18330051920212</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>18330051920215</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>18330051920216</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>18330051920223</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>18330051920229</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>18330051920230</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>18330051920231</v>
-      </c>
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>18330051920232</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>18330051920186</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>18330051920233</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>18330051920137</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>18330051920234</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/6ARHM - Estadisticos 2020.xlsx
+++ b/grupos/6ARHM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="153">
   <si>
     <t>Materia</t>
   </si>
@@ -1261,7 +1261,7 @@
         <v>-1</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -1438,7 +1438,7 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>-1</v>
@@ -1910,7 +1910,7 @@
         <v>-1</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <v>6</v>
@@ -3004,25 +3004,25 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>67.65000000000001</v>
+        <v>70.59</v>
       </c>
       <c r="G2">
-        <v>32.35</v>
+        <v>29.41</v>
       </c>
       <c r="H2">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>32.35</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3192,7 +3192,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3284,22 +3284,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920197</v>
+        <v>18330051920204</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3316,10 +3316,10 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3336,44 +3336,44 @@
         <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920204</v>
+        <v>18330051920094</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920204</v>
+        <v>18330051920213</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -3384,76 +3384,76 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920094</v>
+        <v>18330051920213</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920213</v>
+        <v>18330051920214</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920213</v>
+        <v>18330051920214</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920213</v>
+        <v>18330051920218</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -3464,16 +3464,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920214</v>
+        <v>18330051920218</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -3484,16 +3484,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920214</v>
+        <v>18330051920218</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -3504,36 +3504,36 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920218</v>
+        <v>18330051920217</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920218</v>
+        <v>18330051920217</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -3544,62 +3544,62 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920218</v>
+        <v>18330051920219</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920217</v>
+        <v>18330051920219</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920217</v>
+        <v>18330051920219</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3616,24 +3616,24 @@
         <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920219</v>
+        <v>18330051920223</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -3644,181 +3644,121 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920219</v>
+        <v>18330051920225</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920219</v>
+        <v>18330051920225</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920223</v>
+        <v>18330051920225</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920225</v>
+        <v>18330051920227</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920225</v>
+        <v>18330051920227</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920225</v>
+        <v>18330051920227</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>18330051920227</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>18330051920227</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>18330051920227</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3858,16 +3798,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>18330051920197</v>
+        <v>18330051920219</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -3875,50 +3815,50 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920204</v>
+        <v>18330051920197</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920219</v>
+        <v>18330051920204</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920213</v>
+        <v>18330051920218</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -3926,16 +3866,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920218</v>
+        <v>18330051920225</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -3943,16 +3883,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920225</v>
+        <v>18330051920227</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -3960,19 +3900,19 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920227</v>
+        <v>18330051920213</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4441,7 +4381,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4476,22 +4416,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920217</v>
+        <v>18330051920213</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -4499,16 +4439,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920217</v>
+        <v>18330051920213</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4522,16 +4462,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920094</v>
+        <v>18330051920217</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -4545,24 +4485,70 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
+        <v>18330051920217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920094</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>18330051920223</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>82</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>93</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/6ARHM - Estadisticos 2020.xlsx
+++ b/grupos/6ARHM - Estadisticos 2020.xlsx
@@ -182,7 +182,7 @@
     <t>Por_Blancos</t>
   </si>
   <si>
-    <t>Velasco Sanchez David</t>
+    <t>Velasco Sánchez David</t>
   </si>
   <si>
     <t>Ochoa Martínez Mayeli</t>
@@ -191,7 +191,7 @@
     <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
-    <t>Duran Amezcua Maria Angelica</t>
+    <t>Duran Amezcua María Angélica</t>
   </si>
   <si>
     <t>Castro Vasquez Julieta</t>
